--- a/crewinfinity_class schedule.xlsx
+++ b/crewinfinity_class schedule.xlsx
@@ -17,6 +17,7 @@
     <sheet name="©" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schedule15!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Schedule15!$A$2:$H$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Schedule30!$A$1:$I$40</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -115,9 +116,6 @@
     <t>Western</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>Fitness</t>
   </si>
   <si>
@@ -142,12 +140,6 @@
     <t>Fitness (Batch II,III and IV)</t>
   </si>
   <si>
-    <t>kids  (Batch I)</t>
-  </si>
-  <si>
-    <t>kids        (Batch I)</t>
-  </si>
-  <si>
     <t>Kids (Batch II and III)</t>
   </si>
   <si>
@@ -157,7 +149,16 @@
     <t>CREW INFINITY DANCE STUDIO</t>
   </si>
   <si>
-    <t>LEGEND</t>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Kids        (Batch I)</t>
+  </si>
+  <si>
+    <t>Kids  (Batch I)</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -701,21 +702,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="4"/>
       </left>
       <right/>
@@ -734,6 +720,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -742,7 +737,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -865,115 +860,133 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1491,10 +1504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M56" sqref="K54:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1508,113 +1521,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="A1" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:14" s="27" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="A2" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:14" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="79" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="J3" s="83" t="s">
         <v>42</v>
       </c>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:14" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="74">
         <v>6</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="50"/>
-      <c r="K4" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="61"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="50"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="61"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
@@ -1622,967 +1638,921 @@
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="55"/>
+        <v>29</v>
+      </c>
+      <c r="D7" s="52"/>
       <c r="E7" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+        <v>29</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+      <c r="A8" s="74">
         <v>7</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="61"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="61"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="61"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
     </row>
     <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="61"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+      <c r="A12" s="74">
         <v>8</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51" t="str">
-        <f xml:space="preserve"> ROMAN(1)</f>
-        <v>I</v>
-      </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="50"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="61"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="54"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="61"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="50"/>
-      <c r="K14" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="61"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="57"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="61"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+      <c r="A16" s="74">
         <v>9</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="50"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="61"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="61"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="61"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="61"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
+      <c r="A20" s="74">
         <v>10</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="61"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="61"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="56"/>
+        <v>30</v>
+      </c>
+      <c r="E22" s="53"/>
       <c r="F22" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
+        <v>30</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="61"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="80"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46">
+      <c r="A24" s="74">
         <v>11</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="69"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="69"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
     </row>
     <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="69"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46">
+      <c r="A28" s="74">
         <v>12</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="69"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="54"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="69"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="69"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="57"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="69"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46">
+      <c r="A32" s="74">
         <v>1</v>
       </c>
       <c r="B32" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="50"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="69"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="69"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="69"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="69"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46">
+      <c r="A36" s="74">
         <v>2</v>
       </c>
       <c r="B36" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="69"/>
+      <c r="L36" s="55"/>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="69"/>
+      <c r="L37" s="55"/>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="69"/>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="69"/>
+      <c r="L39" s="55"/>
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46">
+      <c r="A40" s="74">
         <v>3</v>
       </c>
       <c r="B40" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="69"/>
+      <c r="L40" s="55"/>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="69"/>
+      <c r="L41" s="55"/>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="69"/>
+      <c r="L42" s="55"/>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
       <c r="B43" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="82"/>
+      <c r="L43" s="55"/>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
+      <c r="A44" s="74">
         <v>4</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" s="55"/>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="71"/>
+      <c r="L45" s="55"/>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="71"/>
+      <c r="L46" s="55"/>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
       <c r="B47" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="71"/>
+      <c r="L47" s="55"/>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46">
+      <c r="A48" s="74">
         <v>5</v>
       </c>
       <c r="B48" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-    </row>
-    <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="71"/>
+      <c r="L48" s="55"/>
+    </row>
+    <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="75"/>
       <c r="B49" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-    </row>
-    <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="71"/>
+      <c r="L49" s="55"/>
+    </row>
+    <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="56"/>
-      <c r="F50" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="56"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="58"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-    </row>
-    <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="53"/>
+      <c r="D50" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="53"/>
+      <c r="F50" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="53"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="71"/>
+      <c r="L50" s="55"/>
+    </row>
+    <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-    </row>
-    <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46">
+      <c r="C51" s="52"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="71"/>
+      <c r="L51" s="55"/>
+    </row>
+    <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="74">
         <v>6</v>
       </c>
       <c r="B52" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="I52" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="J52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-    </row>
-    <row r="53" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="71"/>
+      <c r="L52" s="55"/>
+    </row>
+    <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="75"/>
       <c r="B53" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-    </row>
-    <row r="54" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="C53" s="52"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="73"/>
+        <v>31</v>
+      </c>
+      <c r="D54" s="66"/>
       <c r="E54" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="73"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-    </row>
-    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F54" s="66"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="69"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="E55" s="63"/>
       <c r="F55" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" s="55"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-    </row>
-    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="46">
+        <v>41</v>
+      </c>
+      <c r="G55" s="52"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="74">
         <v>7</v>
       </c>
       <c r="B56" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="69"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="76"/>
-      <c r="E56" s="69"/>
+      <c r="E56" s="63"/>
       <c r="F56" s="76"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
-    </row>
-    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="75"/>
       <c r="B57" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="69"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="76"/>
-      <c r="E57" s="69"/>
+      <c r="E57" s="63"/>
       <c r="F57" s="76"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G57" s="52"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="69"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="76"/>
-      <c r="E58" s="69"/>
+      <c r="E58" s="63"/>
       <c r="F58" s="76"/>
-      <c r="G58" s="56"/>
+      <c r="G58" s="53"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="71"/>
+    </row>
+    <row r="59" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="42"/>
       <c r="B59" s="40" t="s">
         <v>5</v>
@@ -2594,9 +2564,10 @@
       <c r="G59" s="18"/>
       <c r="H59" s="17"/>
       <c r="I59" s="12"/>
-    </row>
-    <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="46">
+      <c r="J59" s="71"/>
+    </row>
+    <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="74">
         <v>8</v>
       </c>
       <c r="B60" s="41" t="s">
@@ -2609,9 +2580,10 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
+      <c r="J60" s="71"/>
+    </row>
+    <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="75"/>
       <c r="B61" s="31" t="s">
         <v>4</v>
       </c>
@@ -2622,8 +2594,9 @@
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="17"/>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="71"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="31" t="s">
         <v>0</v>
@@ -2635,8 +2608,9 @@
       <c r="G62" s="20"/>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="71"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="42"/>
       <c r="B63" s="40" t="s">
         <v>5</v>
@@ -2648,42 +2622,20 @@
       <c r="G63" s="18"/>
       <c r="H63" s="17"/>
       <c r="I63" s="12"/>
-    </row>
+      <c r="J63" s="72"/>
+    </row>
+    <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K4:K13"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="K14:K23"/>
-    <mergeCell ref="K24:K33"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F50:F54"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="I52:I56"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="J4:J23"/>
+    <mergeCell ref="J24:J43"/>
+    <mergeCell ref="J44:J63"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A52:A53"/>
@@ -2695,6 +2647,34 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F50:F54"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2713,7 +2693,7 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -2752,10 +2732,10 @@
       <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="78"/>
       <c r="G3" s="28" t="s">
         <v>6</v>
       </c>
